--- a/biology/Médecine/1382_en_santé_et_médecine/1382_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1382_en_santé_et_médecine/1382_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1382_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1382_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1382 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1382_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1382_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 août : la maison-Dieu de Saint-Jacques de Condé, en Lorraine, est érigée en commanderie de l'ordre des hospitaliers de Saint-Antoine[1].
-Fondation à Florence par Simone Piero Vespucci d'un hôpital dédié à sainte Marie de l'humilité (Ospedale di Santa Maria dell'Umiltà (it)), qui sera confié en 1587 aux hospitaliers de Saint-Jean-de-Dieu par le grand-duc Ferdinand[2],[3],[4].
-Fondation de l'hôpital Notre-Dame, à Rochefort en Franche-Comté, par Guyot de Rochefort[5].
-Un « hôpital des pauvres » (spital dels pobres d'Illa) est attesté à Ille, en Roussillon[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 août : la maison-Dieu de Saint-Jacques de Condé, en Lorraine, est érigée en commanderie de l'ordre des hospitaliers de Saint-Antoine.
+Fondation à Florence par Simone Piero Vespucci d'un hôpital dédié à sainte Marie de l'humilité (Ospedale di Santa Maria dell'Umiltà (it)), qui sera confié en 1587 aux hospitaliers de Saint-Jean-de-Dieu par le grand-duc Ferdinand.
+Fondation de l'hôpital Notre-Dame, à Rochefort en Franche-Comté, par Guyot de Rochefort.
+Un « hôpital des pauvres » (spital dels pobres d'Illa) est attesté à Ille, en Roussillon.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1382_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1382_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>c. 1382-1410[7] : compilation du Livre rouge de Hergest, manuscrit gallois qui contient un recueil de remèdes par les plantes attribué à Rhiwallon Feddyg, fondateur de la dynastie des médecins de Myddfai[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c. 1382-1410 : compilation du Livre rouge de Hergest, manuscrit gallois qui contient un recueil de remèdes par les plantes attribué à Rhiwallon Feddyg, fondateur de la dynastie des médecins de Myddfai.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1382_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1382_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1350-1382 : floruit Raymond Chalin de Vinario[9], médecin surtout connu comme auteur d'un important traité sur la peste, imprimé par Jacques Daléchamps en 1552[10].
-1382-1394 : fl. Jacques de Chavanges, chirurgien ; sa présence est attestée à Dijon en 1382 et à la cour de Bourgogne de 1385 à 1392[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1350-1382 : floruit Raymond Chalin de Vinario, médecin surtout connu comme auteur d'un important traité sur la peste, imprimé par Jacques Daléchamps en 1552.
+1382-1394 : fl. Jacques de Chavanges, chirurgien ; sa présence est attestée à Dijon en 1382 et à la cour de Bourgogne de 1385 à 1392.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1382_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1382_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 mai : Gervais Chrétien (né à une date inconnue), maître de la faculté de médecine de Paris, doyen en 1359, médecin du roi Charles V et fondateur, en 1371, du collège Notre-Dame de Bayeux, dit « de maître Gervais »[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 mai : Gervais Chrétien (né à une date inconnue), maître de la faculté de médecine de Paris, doyen en 1359, médecin du roi Charles V et fondateur, en 1371, du collège Notre-Dame de Bayeux, dit « de maître Gervais ».
 </t>
         </is>
       </c>
